--- a/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeGoal-MWtoFH.xlsx
+++ b/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeGoal-MWtoFH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC350868-C2BE-4C28-BA16-5BEADC5EE747}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3982EB-1B51-4577-9121-C35A015DDAAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EASY" sheetId="1" r:id="rId1"/>
@@ -1435,6 +1435,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Goal Completion (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1741,6 +1766,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Actions Performed (number of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> actions)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2047,6 +2102,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Remaining Health (%) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2353,6 +2433,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Remaining Energy (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14232,13 +14337,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>172402</xdr:colOff>
+      <xdr:colOff>181927</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>124777</xdr:rowOff>
+      <xdr:rowOff>122872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1180147</xdr:colOff>
+      <xdr:colOff>1189672</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>151447</xdr:rowOff>
     </xdr:to>
@@ -14268,15 +14373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1524952</xdr:colOff>
+      <xdr:colOff>1191577</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>143827</xdr:rowOff>
+      <xdr:rowOff>134302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>229552</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>534352</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
+      <xdr:rowOff>162877</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14304,15 +14409,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>239077</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>162877</xdr:rowOff>
+      <xdr:colOff>180022</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1248727</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10477</xdr:rowOff>
+      <xdr:colOff>1189672</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14340,15 +14445,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1496377</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>115252</xdr:rowOff>
+      <xdr:colOff>1189672</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200977</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>532447</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>143827</xdr:rowOff>
+      <xdr:rowOff>952</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -92203,8 +92308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0FB609-E3C8-4F28-A535-5E68054C2D4E}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeGoal-MWtoFH.xlsx
+++ b/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeGoal-MWtoFH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3982EB-1B51-4577-9121-C35A015DDAAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4CDC5E-937E-43BD-B42F-761D00126BE1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EASY" sheetId="1" r:id="rId1"/>
@@ -1441,7 +1441,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1454,7 +1454,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Average Goal Completion (%)</a:t>
             </a:r>
           </a:p>
@@ -1473,7 +1473,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1520,6 +1520,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-48CA-48AA-BB37-BF199A0762A5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-48CA-48AA-BB37-BF199A0762A5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-48CA-48AA-BB37-BF199A0762A5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$7</c:f>
@@ -1621,7 +1678,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1772,7 +1829,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1785,14 +1842,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Average Actions Performed (number of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> actions)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1809,7 +1866,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1856,6 +1913,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-AEBD-47BD-B9C1-38533314328D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AEBD-47BD-B9C1-38533314328D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AEBD-47BD-B9C1-38533314328D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$7</c:f>
@@ -1957,7 +2071,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2108,7 +2222,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2121,7 +2235,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Average Remaining Health (%) </a:t>
             </a:r>
           </a:p>
@@ -2140,7 +2254,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2187,6 +2301,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-BA83-4F0E-9AA0-7568274B6DEE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BA83-4F0E-9AA0-7568274B6DEE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BA83-4F0E-9AA0-7568274B6DEE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$7</c:f>
@@ -2288,7 +2459,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2439,7 +2610,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2452,7 +2623,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Average Remaining Energy (%)</a:t>
             </a:r>
           </a:p>
@@ -2471,7 +2642,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2518,6 +2689,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E599-4EF3-A027-5A61F406132B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E599-4EF3-A027-5A61F406132B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E599-4EF3-A027-5A61F406132B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$7</c:f>
@@ -2619,7 +2847,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14373,15 +14601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1191577</xdr:colOff>
+      <xdr:colOff>1189672</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>134302</xdr:rowOff>
+      <xdr:rowOff>124777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>534352</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>162877</xdr:rowOff>
+      <xdr:rowOff>151447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -92308,8 +92536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0FB609-E3C8-4F28-A535-5E68054C2D4E}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
